--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Desktop\Repositorios\cdados-p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7vito\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA55E9D3-7847-4D3F-B72D-4BB4C0DE23B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22247C47-52AF-463C-9951-8561ECF80647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="303">
   <si>
     <t>Mensagem</t>
   </si>
@@ -50,6 +50,9 @@
     <t>LEGENDA</t>
   </si>
   <si>
+    <t>Venho por meio deste, expressar meu desapontamento com a loja virtual da Amazon. Ja estou aguardando a disponibilidade do livro "Harry Potter e a ordem da Fenix" a meses, e o produto continua indisponível sem mais explicações ou prazos de disponibilidade. Adquiri o Kindle pela praticidade e o produto nao atendeu minhas expectativas por conta desse tipo de produto indisponível!</t>
+  </si>
+  <si>
     <t>Problemas com a Amazon</t>
   </si>
   <si>
@@ -68,12 +71,24 @@
     <t>Mais uma coletânea de artigos de jornal escritos por um autor que tem pretensões tremendas de ser um filósofo, mas que notoriamente comete erros espantosos, generalizações primárias e distorções absurdas. Os preguiçosos mentais têm em Olavo um grande mestre, pois com difamações em cursos on line ele os desencoraja de ler os autores progressistas que contradizem suas ideias imanentistas, gerando um pensamento único requentado do macartismo da Guerra-Fria.</t>
   </si>
   <si>
+    <t>Poxa comprei o livro em janeiro agora eles nao estão desponibilizando pra mim. Agora vou ter que comprar de novo sacanagem né gente😣</t>
+  </si>
+  <si>
+    <t>A formatação desse ebook atrapalha muito a leitura e não vale a pena ter essa versão do Kindle. Comprei agora um Kindle e esse ebook e estou arrependido.</t>
+  </si>
+  <si>
+    <t>Venderam um produto que não tinham para entrega. Me deu muita força de cabeça para fazer estorno no meu cartão de crédito</t>
+  </si>
+  <si>
     <t>Livro pessimo, dinheiro jogado fora, só mesmo os fãs obsecados que acham esse livro uma "obra prima" , enfim, não recomendo.</t>
   </si>
   <si>
     <t>Escolhi esta classificação pois achei o livro muito fraco e esperava uma coisa completamente diferente pelas recomendações que recebi. É isso</t>
   </si>
   <si>
+    <t>Queria entender o porque não chegou ainda esse livro em minha casa. Fui até o correio daqui pra ver a estava lá mas eles disseram que a entrega de vocês não usam o correio da minha cidade, é algo próprio de vocês. Comprei esse livro a tempos, mas nada dele chegar. Obrigada</t>
+  </si>
+  <si>
     <t>Apesar da narrativa prender o leitor, os argumentos não falhos e tendenciosos. Para se ler atento e não se deixar levar pela propaganda. Livro coloca o ser humano como um perfeito idiota e o autor como o suprassumo da inteligencia,uma vez que narra a história da humanidade como a história de um bando de animais que sucessivamente fizeram escolhas erradas a ermo e sem proposito nenhum. Se por uma lado a evolução dos animais é essencialmente biologica, Harari deixa de considerar que a humana é essencialmente histórica.</t>
   </si>
   <si>
@@ -98,6 +113,15 @@
     <t>Gostei mais de Sapiens, uma leitura mais biológica. O livro discute um futuro diferente do que imaginamos, nos faz pensar numa outra realidade.</t>
   </si>
   <si>
+    <t>Oh Amazon! Por favor atualiza essa edição! Está sem condição de ler, faltam frases dos personagens, diálogos, tem pedaço do livro que não da nem pra entender o que está acontecendo!!!</t>
+  </si>
+  <si>
+    <t>A caixa veio estragada, queria deixar ela a mostra como produto decorativo, agora não poderei mais! Muito obrigada pelo pessimo produto</t>
+  </si>
+  <si>
+    <t>Não posso avaliar pois não recebi o livro. E hoje constato que o valor correspondente foi debitado em meu cartão. Favor entrar em contato para que possamos corrigir o erro.Aguardo</t>
+  </si>
+  <si>
     <t>O autor escreve sua experiência pessoal do que precisou passar para amadurecer na vida. Em exemplos bem repetitivos, tenta mostrar que a felicidade se encontra em valorizar o que realmente importa na vida e deixar de lado o que não importa! Alguma novidade? Não! Não há nada de novo no discurso, apesar de ter uma linguagem cotidiana e informal para se expressar, o que torna muitos trechos engraçados.</t>
   </si>
   <si>
@@ -107,6 +131,9 @@
     <t>Na orelha do livro, afirma que é melhor que os Cinquentas Tons de Cinza, se fosse, eu diria. mas o que se vê é uma imitação caricata dos Cinquentas, a autora nem escondeu isso. Uma leitura cansativa, principalmente pela personagem ser muito imatura e desagradável, apesar dos 40 anos. Nada, absolutamente nada comparada a maturidade da Anastasia que tem apenas 21 anos. Repassei o livro para ouvir a opinião de outra pessoa e, infelizmente, foi a mesma. Devolvi o livro para o Sebo. Eu não gostei e não recomendo, esta é a minha opinião.</t>
   </si>
   <si>
+    <t>Fiz de tudo para configurar o kindle e concluí que o problema é do ibook. Não importa o tamanho da letra, a separação das letras no final das linhas fica completamente errada, tipo indepe-ndente. Isso não acontece com os outros livros que comprei. É muito ruim ler assim.</t>
+  </si>
+  <si>
     <t>amei o livro inteiro, mas confesso que o final nunca passou pela minha cabeça e acabou tirando todo o encanto do livro.</t>
   </si>
   <si>
@@ -122,6 +149,9 @@
     <t>Não recomendo a ninguém! Sem conteúdo, fútil e pobre de informações. Mais vale ler a revista Caras que você estará perdendo menos tempo.</t>
   </si>
   <si>
+    <t>meu box chegou com alguma bolhas nas capas de alguns livros, e a orelha de um dos livros, está bem surrada.</t>
+  </si>
+  <si>
     <t>é um livro bem fraco, não acrescenta nada, só fala o óbvio de um ponto de vista fora da realidade.</t>
   </si>
   <si>
@@ -155,126 +185,636 @@
     <t>Bem fraco. Achei muito forçada a ligação com o primeiro livro, que já não é lá muito bom. Muito novelesco!</t>
   </si>
   <si>
+    <t>O pedido chegou atrasado 3 dias e quando recebi, a caixa veio rasgada nos dois lados. É um absurdo fazer uma compra cara para obter um produto danificado, o sentimento de frustração é grande. Apesar de terem resolvido comigo um valor de reembolso (baixíssimo) pelo dano, não repara o desagrado jamais! É uma pena que os produtos comprados não tenham o cuidado devido e nem uma fiscalização para perceber o dano antes de chegar nas mãos do cliente. Sem duvidas não recomendarei a compra online pela AMAZON para ninguém, principalmente se for coleccionador.</t>
+  </si>
+  <si>
     <t>Livro tendencioso. Democracia não é só quando a esquerda está no poder. Aqui no Brasil a democracia estava em jogo assim como a liberdade da mídia caso o PT tivesse ganhado. PT não é direita.</t>
   </si>
   <si>
+    <t>livro muito repetitivo muito estrelismo e pouco conteúdo.</t>
+  </si>
+  <si>
+    <t>Assim como todos os livro da Série, não curti. Aliás, ainda acho que foi o pior de todos, pois repetiu tudo o que já havia sido lido. Não trouxe nenhuma informação a mais. É a mesma história, só que com a visão do personagem. Não recomendo.</t>
+  </si>
+  <si>
+    <t>O mínimo que você precisa saber para não ser idiota é entender que o autor desse livro é um teórico da conspiração. Teorias sem pé nem cabeça, com argumentos tirados das vozes da cabeça do autor, e autores da extrema-direita americana e européia. NÃO RECOMENDO.</t>
+  </si>
+  <si>
+    <t>Não gostei do livro, achei cansativo, cheio de palavras difíceis, parece que a estória não desenrola. Não consegui nem terminar de ler.</t>
+  </si>
+  <si>
+    <t>Livro muito decepcionante. Animado com o filme fui ler a trilogia. Achei essa segunda parte horrível. Arrastada. Como mais reflexões sobre o que fazer do que ação em si. Conflitos forçados de personagens. Muito infantil.</t>
+  </si>
+  <si>
+    <t>Comprei o livro por ter achado o título interessante e por me interessar por história. Já no início, senti um certo desconforto com o primarismo do mesmo, e em muitos momentos pensei "isso parece algo que algum colunista da Veja escreveria". Não estava errado, já que Narloch era repórter da Veja. Nesse momento, aquilo que eu já estava achando ruim, piorou. Em especial o capítulo a respeito do Barroco Brasileiro. O autor é de um primarismo extremo. Tendo viajado pelo mundo e visitado diversos templos barrocos, como a igreja de Wies e a Igreja de Asam em Munique, notei que em todas os anjos tbm possuíam as faces tortas, algo que o autor disse ser exclusivo do barroco brasileiro, pela falta de dom artístico dos artesãos. Conversando com um historiador da arte, ele disse que isso era algo normal no período, para dar sensação de profundidade às esculturas, que geralmente ficavam distantes do público. Dei uma estrela por não ser possível dar 0, pois o livro não vale nem o papel em que foi publicado (de boa qualidade, por sinal).</t>
+  </si>
+  <si>
+    <t>Pela porcaria que é, de graça é caro! Não me dei ao trabalho de ler, pois pelos comentários de quem leu, as críticas feitas, e o pouco conhecimento de história que tenho, percebi que trata-se de uma deturpação mesquinha. Para quem não conhece a história do Brasil e quer conhecê-la de forma minimamente séria, aconselho que escolha algum autor menos bisonho. Para quem quer fazer piadinhas na roda de amigos que gostam de falar sem razão, pode ser que encontre neste ... (sem definição) um repositório de besteiras mais ou menos útil, alguma passagem boba que sirva de inspiração para alguma piada idiota. Aos tolos, bom proveito!</t>
+  </si>
+  <si>
+    <t>Só recomendo Sapiens .Provavelmente as previsões de Homo Deus nunca se concretizarão!!!!!!!!!!!!!!!K Chato e muito frustrante , tudo ali é pura idealização de um futuro impossível.!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!K</t>
+  </si>
+  <si>
+    <t>Livro apenas comenta sobre o que é leitura rápida. Realmente decepcionante. Gostaria de obter meu dinheiro de volta. Não comprem!</t>
+  </si>
+  <si>
     <t>uma das maiores histórias já contadas, uma decepção aqui. é triste ver o preço deste e-book. mais triste ainda é pensar que há gente que paga por isso.</t>
   </si>
   <si>
+    <t>No dia 24-05-2018 eu fiz o pedido do box, paguei, até ai tudo bem ! Porem justo na semana a diante a dessa que efetuei o pedido, o brasil estava em um tremenda greve geral. A atendente da amazon me recomendou a cancelar o pedido, pois, por conta da greve o meu pedido iria ficar mais de dois dias em separação de estoque o que é errado para a politica interna da empresa, tudo bem !! Cancelei o pedido e em seguida ela fez o reembolso. Dali em diante começou a dor de cabeça, já se fazem um pouco mais de duas semanas que o pedido foi cancelado e nada do reembolso cair na minha conta (fiz a compra em debito a vista o que significa que o reembolso deveria acontecer ser o mesmo sem burocracia). OBS.:Verifiquei com o meu banco e nada consta sobre credito ou debito pendente da Amazon em relação com a minha conta.</t>
+  </si>
+  <si>
+    <t>Decepção total com o livro, nem pareciam o casal dos 4 primeiros livros.  A autora perdeu a mão. Livro totalmente chato.</t>
+  </si>
+  <si>
+    <t>Muito fraco o conteúdo.</t>
+  </si>
+  <si>
+    <t>O título deveria ser outro: Como as Democracias são Assassinadas, e os autores mais qualificados são do governo russo, sede da difusão do comunismo desde 1917! Trata-se de obra contra Donald Trump, que está fazendo o contrário, salvando a democracia liberal (libertarian, nos EUA). Mas comunistas costuman costumam ser o que eles xingam aos democratas de ser e costuma fazer o que eles acusam aos democratas de fazer!</t>
+  </si>
+  <si>
+    <t>Há anos que os leitores reclamam da péssima formatação deste livro de Narloch. Por que a Amazon não providencia uma reformatação e a envia para os que já adquiriram o e-book? Incompreensível. Avaliações de dois meses atrás ainda relatam o mesmo problema. E por que os clientes continuam comprando, se têm acesso a essas críticas? Mistérios.</t>
+  </si>
+  <si>
+    <t>Muita gente que comprou esse box reclamou que chegou com algum defeito. Achei que o meu viria em perfeito estado, mas não veio. É bem provável que estava na promoção somente os estragados. Nunca mais compro na Amazon.</t>
+  </si>
+  <si>
+    <t>O problema do livro não é ser uma fanfic. São vários os problemas dessa trilogia, mas certamente ser uma fanfic não é um deles. O primeiro de todos é o protagonista ser um abusador e perseguidor de mulheres. Segundo, a autora demonstrou um profundo desconhecimento de BDSM, colocando-o como uma "perversão" que precisa ser "curada" através do "amor" da Anastácia. É clichê em cima de clichê e é bem preocupante tantas mulheres acharem Christian Grey um "romântico" ao invés de reconhecerem os diversos abusos pelos quais Anastácia passa. Amor não cura ninguém, gente.</t>
+  </si>
+  <si>
+    <t>Esse livro veio com o mesmo problema que o outro, umas páginas com manchas de tinta. Nada gritante, mas incômodo. A capa dele veio numa tonalidade mais clara que as outras. Não tenho certeza se foi erro de impressão ou se as edições novas estão vindo assim mesmo. Esse livro foi decisivo para que eu não compre mais livros às cegas em lojas digitais.</t>
+  </si>
+  <si>
+    <t>Mal comecei a ler e já parei, é um livro que fala sobre a teoria evolucionista, como sou cristã, não é o tipo de leitura que eu indicaria.</t>
+  </si>
+  <si>
+    <t>Muito longo, descrições repetitivas, acontecimentos improváveis e fortuitos, vai e volta na visão dos personagens muitas vezes desnecessario, repete trama de outras histórias.</t>
+  </si>
+  <si>
+    <t>O tema do livro é ótimo porém o autor é redundante e repetitivo no decorrer do texto.  Ele deveria aplicar o conceito que defendeu no livro e ser mais sucinto.</t>
+  </si>
+  <si>
+    <t>Não recebi o livro falta de respeito com o cliente,  e não obtive resposta do vendedor, quero meu dinheiro de volta.</t>
+  </si>
+  <si>
     <t>Não vale a pena comprar pelo preço proposto na promoção (99 reais). Muito caro. Compre a versão física. Bem melhor.</t>
   </si>
   <si>
     <t>É com muita tristeza que venho redigir essa resenha, mas infelizmente a Amazon pecou na venda desse box. A fotografia do box, aparece livros pretos com acabamento dourados, mas recebi livros preto com (um péssimo) acabamento prata. (O livro veio com defeito de fábrica, com cola grudada em 2 livros e capa descascando em 1.) Não foi especificada em momento algum da compra que as folhas eram brancas e sem orelha. Essa compra se justifica numa máxima popular: "O barato sai caro.".</t>
   </si>
   <si>
+    <t>O livro veio meio amassado. Um pouco caro para uma edição de bolso</t>
+  </si>
+  <si>
+    <t>Eu amei o primeiro livro "Como eu era antes de você" e comprei o "Depois de você" ainda na pré-venda de tão ansiosa que estava. Achei esse livro super sem graça e previsível. A Lou conseguiu ir para o fundo do poço, mesmo com tudo que o Will deixou para ela. Ela poderia ter uma vida maravilhosa, mas acabou trabalhando num bar, sendo humilhada no serviço. A autora não tinha nada para inventar e apareceu uma filha do Will de um caso antigo. Achei  essa parte nada a ver, depois de tudo que ele passou, aí aparece a menina atrás do pai?!? E como era de se esperar, a Lou se apaixona por outro cara e aí vivem feliz para sempre. Não achei nada de emocionante nesse livre, nada comprado ao primeiro livro que amei.</t>
+  </si>
+  <si>
+    <t>Sim.adorei o livro Vou continuar a comprar o resto da coleção Muito emocionante esta saga.Melhor di que a minisserie da tv</t>
+  </si>
+  <si>
+    <t>moleque bobo demais, triste ver que as crianças estão sendo influenciadas por gente tão vazia... um pré adolescente com 30 anos</t>
+  </si>
+  <si>
+    <t>Esse livro é cheio de afirmacoes sem embasamento; se você acrrdita em mensagens do tipo "vai a luta", "deus ajuda a quem cedo madrugada"essas coisas, pode encarar o livro.  No meu caso, buscava algo mais cientifico.</t>
+  </si>
+  <si>
+    <t>Eu também cheguei a entrar na página para comprar o livro em questão! Porém com avaliações como estas desisti da compra! Acho um absurdo uma empresa como a AMAZON estar ENVOLVIDA COM PIRATARIA ou mesmo comercializando um material incorreto, fraudulento e por sua vez DESRESPEITANDO O CONSUMIDOR! ABSURDO!</t>
+  </si>
+  <si>
+    <t>Muito previsível. Igual a outros tantos. Linguagem vulgar. Odiei. Parece romance de revista por no gráfica.  Ruim. Ruim. Ruim. Ruim.</t>
+  </si>
+  <si>
     <t>Sempre comprei livros na edição americana da amazon. Fiquei feliz com a amazon chegando ao Brasil, mas não consigo entender como os preços dos ebooks podem estar tão altos. Voce tem que comprar um kindle e depois ainda pagar mais caro pela versão digital do livro. Como isso pode funcionar? A versão americana fez sucesso de outra forma. Espero que mudem a política aqui no Brasil para estimular o consumo de ebooks.</t>
   </si>
   <si>
+    <t>Gostei muito do livro. Prende a nossa atenção desde o início até ao final. Trabalho de pesquisa fantástico. Recomendo e avalio com 5 ( cinco) estrelas. Parabéns.</t>
+  </si>
+  <si>
+    <t>O autor usa termos que tem que ser procurado em um glossário atrás do livro e isso atrapalha a leitura. Um livro de leitura cansativa e arrastada. Fiquei chateada por não ser aquilo tuso que tanto falam. Muita propaganda para um conteúdo sem atrativos.</t>
+  </si>
+  <si>
+    <t>A impressão que me dá é que o autor estava com MUITA, mas MUITA pressa para acabar esse livro. Achei extremamente forçado, sem lógica e muito mal costurado. Parece que ele achou um monte de foto e construiu a história sem pensar muito... cada capítulo que terminava pensava "ok, ele escreveu isso por causa da foto...mas não tem o menor sentido, não desenvolveu absolutamente nada além da foto". Além disso os personagens perderam muito o carisma, sem falar no romance sem sal chaaaaaatooooooooo que o autor força goela abaixo...Enfim, até curti o primeiro livro, o segundo foi mais ou menos, mas o terceiro.....affffffff</t>
+  </si>
+  <si>
+    <t>O mais famoso astrólogo brasileiro deveria deixar os livros de Jane Austen de lado e experimentar Svetlana Aleksiévitch para descobrir o que realmente acontece com a mulheres enquanto os homens vão para a guerra. Livro raso, como o autor.</t>
+  </si>
+  <si>
+    <t>Em poucas palavras não gostei nada. Como costuma acontecer com "certos" best sellers, o autor parte de uma premissa e não está disposto a avaliar outras opiniões. Tira conclusões sem qualquer embasamento (nem todas, verdade seja dita). Não entendi porque tanta aclamação feita a esta obra.</t>
+  </si>
+  <si>
     <t>Acabo de ver a trilogia impressa por 54,90. Amazon está sendo ridícula com esse preço. Pensava seriamente em comprar a edição Kindle, mas vou ficar com os que tenho mesmo. Inviável.</t>
   </si>
   <si>
+    <t>Custa crer que um livro tão medíocre, embora minha avaliação se reduza às primeiras dezenas de páginas que resisti ler, tenha feito tanto sucesso! Cada vez mais parece que nossa civilização consumista se restringe a perceber as coisas e não refletir sobre elas. Em todo caso, um ponto positivo do livro: conhecidos meus que nunca leram um livro, desde os tempos de colégio, 'adoraram' os cinquenta tons, e quem sabe assim adquiram o hábito de ler. Com sorte vão ler alguma coisa realmente válida.</t>
+  </si>
+  <si>
+    <t>Gostei de tudo, é engraçado dois personagem diferente do que estamos acostumada a ler. Gente ri tanto com eles e as cenas hot ? meu Deus que isso ? Amei</t>
+  </si>
+  <si>
+    <t>Cansativo. O kindle não facilita as idas e vindas no dicionário Nadsat. O texto se perde e você tem que ficar procurando onde parou a leitura.</t>
+  </si>
+  <si>
     <t>Preço extremamente abusivo. Queria tê-lo original. Porém, leio a versão gratuita conseguida facilmente em sites que disponibilizam de graça livros para e-readers.</t>
   </si>
   <si>
+    <t>A diagramação do texto deixa a desejar. Isso dificulta um pouco a leitura. No mais a estória é bastante boa.</t>
+  </si>
+  <si>
+    <t>Nunca tive problemas com a Amazon, e agora depois de um tempo de efetuar a compra percebi que o livro não esta em bom estado, amassado e com o "plástico" descolando. Uma surpresa nada agradável :(</t>
+  </si>
+  <si>
+    <t>O livro é muito repetitivo no começo, o que torna o restante da leitura um pouco cansativa , mas tem boas dicas de aplicações do método 80/20.</t>
+  </si>
+  <si>
+    <t>É uma revista: diagramado como revista, grampeado, sem texto corrido. Um engano chamar d lê livro. Além disso, conteúdo bobo, sem pé nem cabeça...</t>
+  </si>
+  <si>
+    <t>Acompanho o canal Me Poupe! há um bom tempo - muito antes de ter 300K inscritos. Dito isso, ao ler o livro, me deparei com o roteiro de boa parte dos vídeos do canal, contando as mesmas histórias, falando as mesmas coisas... Não são inúteis, mas também não foi a inovação, ou o inédito, que eu esperava. Além disso, me chateou MUITO o fato de que boa parte do livro é uma espécie de "propaganda pessoal" da autora. Isso não seria um problema (porque, de fato, ela tem muitos méritos), mas, depois de ver tantas entrevistas, assistir aos vídeos e ler o livro, percebemos que não são bem assim - vide a história de ter comprado o apto à vista: comprou, mas 30% dele, e não sozinha, inteiro, como suas narrativas nos induzem. Pode parecer bobagem, mas me senti um pouco enganada, o que, de certo modo, faz com que a autora perca um pouco da minha admiração... No mais, uma boa leitura com algumas dicas úteis.</t>
+  </si>
+  <si>
+    <t>Com o box Harry Potter - Edição especial da Amazon mas veio com defeito no livro 5 nas letras douradas que está descascada. Solicitei a troca e recebi um segundo produto, mas este também estava com defeito na capa no livro 5. Solicitei a troca uma terceira vez e ainda veio com problema. Como era em um livro diferente consegui trocar pelo livro do outro box que estava comigo. Mas fiquei decepcionada com a qualidade do produto.</t>
+  </si>
+  <si>
+    <t>O livro é incompleto. Acaba em 11/04/44, sendo que o diário dela foi escrito até 01/08/44. Alguém pode explicar pq não informam que é incompleto?</t>
+  </si>
+  <si>
+    <t>Primeiramente meu pedido nem veio,Mas me reembolsaram.</t>
+  </si>
+  <si>
+    <t>Um bom livro contando bela história.Mas o formato e-book saiu pior do que a encomenda: centenas de palavras aparecem imiscuídas umas às outras no formato digital. Por exemplo, toda palavra em itálico vem grudada à sua precedente ou posterior. Urge nessa edição uma correção desses defeitos.</t>
+  </si>
+  <si>
+    <t>Nada de interessante, muito fraco a unica coisa que achei razoável foi, leia sem parar, não fique retornando a leitura, pois assim será mais compreender o texto lido. Um livro inteiro para dizer isto, hora faça-me o favor.</t>
+  </si>
+  <si>
+    <t>GREY: CINQUENTAS TONS E. L. JAMES Nao  recomendo  livro chato repete, repete e  repete. Ruim Nao compre  sem avaliação. Rr</t>
+  </si>
+  <si>
+    <t>De longe é o pior livro da trilogia. A narração dos capítulo é alternada entre a Tris e o Quatro e isso é bem chato. Claramente a história perdeu sua atração nesse livro. Estou continuando a leitura somente para concluir a trilogia, mas perto dos dois primeiros volumes a leitura está bastante maçante.</t>
+  </si>
+  <si>
+    <t>Ao longo do livro me senti extremamente mal ao ler as descrições dos experimentos feitos com camundongos e macacos. Implantes cerebrais, retirada de recompensa para estimular comportamento hostil, eletro-choques,... Um show de horrores tratado ao longo do livro como algo natural. Não me agradou saber que existem por aí laboratórios implantando tomadas em cabeça de ratos para descobrirem seus hábitos. Além disso, o autor é extremamente prolixo. Para cada caso usado para exemplificar seu ponto de vista ele discorre longamente sobre a história de vida da personagem em estudo. São muitos detalhes irrelevantes ao propósito do livro. Li o livro como numa leitura dinâmica, pulando todas as partes de enrolação. Sinceramente, acho que um artigo em um blog na internet já poderia conter toda a mensagem deste livro.</t>
+  </si>
+  <si>
+    <t>O livro foi classificado como novo no site e chegou em péssimo estado, totalmente amassado como se fosse um livro com valor de 3 reais.</t>
+  </si>
+  <si>
+    <t>Frustração resume....A série deveria ter acabado no quarto livro, o quinto foi pra encher linguiça,  dando voltas em assuntos bobos...odiei,  só o lindo do Gidion pra salvar a chatisse da Eva...A autora continua com sua escrita inteligente,  porém deixou muito a desejar.</t>
+  </si>
+  <si>
     <t>Não serve nem para fazer uma boa fogueira porque o papel é ruim.</t>
   </si>
   <si>
+    <t>Estilo cansativo, pesquisas mal feitas, ele já não escreve bem mesmo mas se superou.Não consegui terminar o livro e se vc. é um leitor medianamente exigente também não vai conseguir.</t>
+  </si>
+  <si>
+    <t>A caixa do box veio rasgada e amaçada; página do livro cálice de fogo, uma folha veio amaçada ... .</t>
+  </si>
+  <si>
     <t>Então... estava muito interessado nesta edição, mas aí, ao olhar mais atenção, percebi que as páginas de dentro são impressas em papel 'couchette'. Quem teve essa 'brilhante' idéia? Pois para mim, acabou o interesse. Blah</t>
   </si>
   <si>
+    <t>infelizmente veio com a caixa toda detonada, o box veio amassado e com uma das laterais rasgada quase saindo, os livros vieram com um pouco de cola na parte superior e ao puxar rasgaram o box e para piorar o quinto livro veio com umas oito páginas em branco. Pior experiencia.</t>
+  </si>
+  <si>
+    <t>Sinceramente esta história não me cativou. Achei um pouco arrastada e sem graça.</t>
+  </si>
+  <si>
     <t>Não comprem, valor abusivo para e-book, amazon cobra o dobro do que é cobrado nos EUA, estamos financiando a sua crise.</t>
   </si>
   <si>
+    <t>Infelizmente a história é fraca e a escrita deixa a desejar, não foi nada do que eu esperava. Não leria novamente!</t>
+  </si>
+  <si>
+    <t>Livro com um monte de clichês, mas com pouco conteúdo prático em termos de técnica de aprendizagem. Dispensável e na linha auto-ajuda vazia.</t>
+  </si>
+  <si>
+    <t>Produto AINDA não entregue dentro do prazo, total descontentamento</t>
+  </si>
+  <si>
+    <t>é mais sobre a vida da autora do que finanças, que cai entre nós fugiu muito da minha realidade talvez por isso gostei menos ainda. Enfim parece que eu estava assistindo um video do tedtalk para levantar minha autoestima. O canal dela tem mais conteúdo do que o livro.</t>
+  </si>
+  <si>
+    <t>Realmente uma decepção, indignada com o site de não ESPECIFICAR o produto, custa colocar na descrição que é pocket ou versão econômica? Além da caixa vir toda riscada e amassada, os livros com a capa descascando e todos sujos com algo que parece cola, as folhas amassadas, rasgadas e com as palavras ''comidas''. Sinceramente nunca achei que fosse passar por uma coisa dessas, um site tão bem falado cometer um erro desse, nunca mais compro na Amazon e ainda vou abrir um processo, nada mais justo.</t>
+  </si>
+  <si>
     <t>Não recebi o livro . Não sei o motivo. Foi feito tudo como orientado. Estou com muito receio de realizar nova compra</t>
   </si>
   <si>
+    <t>Sou fã da série Harry Potter. Tenho a coleção e já  mas este último livro... francamente, é péssimo. Acredito que a escritora é do tipo "escritora de um livro só".</t>
+  </si>
+  <si>
+    <t>Ganhei na compra do Kindle. Não é estilo de livro que gosto</t>
+  </si>
+  <si>
+    <t>Este é um dos piores livros do ano, quiçá dos ultimos dez anos e uma leitura completamente dispensavél. Fuja disso.</t>
+  </si>
+  <si>
+    <t>Nas primeiras páginas já temos o propósito do livro. Depois, pura repetição.</t>
+  </si>
+  <si>
     <t>Veio com um problema na imagem da capa e vendo as outras críticas isso parece ocorrer com frequência. Não o recomendo para ninguém.</t>
   </si>
   <si>
+    <t>Começou boa istoria, no meio um pouco enrolado, depois embromou no romance, dando para saber que o violão era o irmão mais novo! Mas é diferente, com um mundo novo, só por isso deve ser expandindo! Espero que o próximo seja melhor</t>
+  </si>
+  <si>
+    <t>Um livro que se disfarça com piadinhas e que não passa de uma versão grotesca e distorcida da história, feito por uma pessoa com muito rancor e mesquinho. Nãorecomendo nem para inimigo oculto.</t>
+  </si>
+  <si>
+    <t>Não gostei, a capa diz mais do que o conteúdo do livro.</t>
+  </si>
+  <si>
+    <t>Tinha os elementos para ser aquele chiche gostoso, mas não curti. O livro fala muito sobre o acordo não ser ilegal, mas se coagir alguém ao "casamento" sob ameaças não for ilegal esta sociedade está mesmo perdida. A química entre o casal logo no início é exagerada. Sofia tem um começo muito irritante. A cada reação, grito, tapa, que dava era "Ai meu Deus, não sou assim. Eu não respondo. Não sou agressiva!" Chata!! Heitor comete estupro naquele apartamento em New York.  O tratamento possessivo passa muito do limite entre excitante e abuso. O castigo de Heitor foi bom, mas o livro deveria ter acabado no máximo 30 páginas depois, o que já daria um ótimo epilogo, mas o texto se arrasta interminavelmente sem nenhum acontecimento. Muito cansativo!</t>
+  </si>
+  <si>
+    <t>Assim como outros livros do autor, um livro leve e engraçado sobre adolescentes. Diálogos perspicazes e personagens acima da média. Gosto muito do autor, apesar de seus livros terem sempre o mesmo tom e personagens com várias características em comum.</t>
+  </si>
+  <si>
+    <t>A edição está meio confusa e mal diagramada. Arrependi-me de adquiri-la e acredito que há opções melhores da mesma obra.</t>
+  </si>
+  <si>
+    <t>Embora tenha gostado do livro "Não Faz Sentido", também do Felipe Neto, que nos faz ter uma visão de alguém que batalha dentro do YouTube, o livro "Felipe Neto. A Trajetória de Um dos Maiores Booktubers" é fraquíssimo, não acrescenta nada, deseduca crianças e adolescentes com brincadeiras do tipo "trepa, casa ou passa". Não há criatividade e sim futilidade. Uma pena, já que Felipe Neto é formador de opinião pública. Não recomendo.</t>
+  </si>
+  <si>
+    <t>Não li os comentários antes de começar a ler o livro, pois já li outras história da nana e gostei bastante. Consegui chegar até o meio da história, mas o protagonista não é cativante e é extremamente abusivo, estúpido, grosseiro com a mocinha, a força a um sexo bruto e conta sua vontade, o que caracteriza claramente um estupro. Não se importa nem um pouco em como ela se sente, inclusive a trai sem nem achar que é traição, nada menos do que ele merece. E a avó dele criando um monstro, ridículo criar um ser humano prepotente assim, mas entendo que essa parte seja parte do enredo. Já os estupros romantizados não consegui engolir. A nana errou a mão, o triste é que eu estava interessada mesmo no segundo livro, mas acho que não tenho nem ânimo pra lê-lo</t>
+  </si>
+  <si>
+    <t>A "obra" é uma fraude completa. O autor é um astrólogo que se diz filósofo e é reconhecidamente um embusteiro e foi, de forma reiterada, desmascarado por acadêmicos. A obra contém uma série de chavões que podem ser lidos em parachoques de caminhões.</t>
+  </si>
+  <si>
     <t>Eu adoraria comprar o livro e tê-lo em meu Kindle, mas jamais comprarei a esse preço. Prefiro até pagar um pouco mais na edição impressa que pagar esse absurdo no e-book, que deveria ter preços bem mais acessíveis. Uma pena.</t>
   </si>
   <si>
+    <t>Vocês estão brincando, certo? Quando fui fazer o download, apareceu que não estava disponível para a minha região/país. Só que não havia nenhuma região selecionada. Quando selecionei Brasil, apareceu que eu já tinha usufruído da oferta. Não fiz download nenhum e tenho que dizer o que achei do livro?</t>
+  </si>
+  <si>
+    <t>Sinceramente eu achei muito chato e difícil de ler. Aquele vocabulário é um tédio... Não consegui terminar a leitura. Comprei por ser um clássico, espero um dia ter ânimo para continuar a leitura.</t>
+  </si>
+  <si>
+    <t>Produto horrível, veio com várias páginas em branco.</t>
+  </si>
+  <si>
+    <t>Primeira vez que uso esta página e a decepção tá sendo total. Duplicaram meu pedido 😤 e tentei cancelar um deles e adivinhem só? Impossível! Ainda que eles afirmam que temos a possibilidade de remover intens ou cancelar o pedido inteiro, essa opção não existe. Ahhh! e o número de atenção ao cliente oferecido na página da amazon? Simplesmente não existe. Decepção total! Primeira e última vez que uso esta página pra comprar. Não recomendo pra ninguém!</t>
+  </si>
+  <si>
+    <t>As afirmações do autor, que é historiador, não têm bases científicas. São suposições baseadas em realidades que às vezes parecem existir apenas na mente do autor. Como por exemplo a afirmação de que a religião morreu. As atividades dos radicais islâmicos mostram o contrário (já ouviu falar do ISIS?). Outra afirmação, de que felicidade e tristeza são problemas técnicos e portanto serão solucionáveis via medicamentos e engenharia genética, não explica porque, com o passar do tempo e todo o avanço das biociências, os consultórios dos terapeutas têm ficado mais cheios (sem falar em todos os problemas com drogas). Para finalizar, o mote do livro é que a evolução humana, com todo o aparato técnico que teríamos, acabaria por nos transformar de humanos em deuses. A história lembra que todas as idéias desse tipo  sempre terminam com um grupo que tenta se sobrepor aos outros (lembra dos nazistas?). O melhor é que tenhamos avanço científico sim, mas os homens continuem a serem homens e as mulheres a serem mulheres.</t>
+  </si>
+  <si>
+    <t>Lino livro por causa do hype feito em cima dele. Sinceramente, não me chamou a atenção, não gostei. História fraca, nada acontece, uma vez ou outra alguém fala alguma coisa que vale a pena guardar mas só. Poderia ser muito melhor.</t>
+  </si>
+  <si>
+    <t>Não consegui ler o livro todo, a escrita não é fluída, os personagens não são consistentes... Não gostei. Me arrependi da compra!!</t>
+  </si>
+  <si>
+    <t>Não gostei porquê a capa veio com um rasgo, o que para edição de colecionador, é péssimo. Espero que das próximas vezes que eu comprar, não venham novamente com defeitos ou algo do tipo.</t>
+  </si>
+  <si>
+    <t>Livro bem ruim, a abordagem do autor até tenta ser descontraída para atingir certo público, mas sinceramente peca na precariedade do texto. Ah sim, a tradução tá bacaninha até.</t>
+  </si>
+  <si>
+    <t>O livro é prolixo, redundante, doentio. Sou suspeito para falar de terror psicológico, pois gosto muito do tema, mas o que King faz aqui é, no mínimo, um desgosto. O livro é horrível, quanto mais próximo ao final, mais esquisito fica. Cenas de estupro, abuso sexual e mais algumas coisas estão presentes. Odiei o livro, não recomendaria para ninguém. Mas não deixe de ler, pode ser que você goste.</t>
+  </si>
+  <si>
+    <t>Parece um texto que foi rascunhado e vertido para formato de interpretação em cinema. Repetitivo, personalidade dos personagens distorcidas e pobres. Soluções simplistas para as interações pessoais.</t>
+  </si>
+  <si>
+    <t>Particularmente não sou de livro de auto ajuda, porém de tanto ouvir falar nesse livro acabei comprando (ainda bem que foi numa promoção). O livro não tem nada de diferente, achei uma leitura chata e sempre o mais do mesmo. Tudo que sabemos mas que não praticamos na maioria das vezes. Dei duas estrelas pela capa, achei a melhor parte do livro.</t>
+  </si>
+  <si>
+    <t>Não consigo ler .... Está muito confuso este site. Não consigo contato com ninguém para ajuda. Complicado o Amazon. Espero conseguir ler ou o estorno.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado ao saber que a edição digital está diferente da versão impressa, conforme informado pelo leitor Ricardo. Como consequência, devolvi o e-book com a solicitação da devolução do quantia paga. LAMENTÁVEL.</t>
+  </si>
+  <si>
+    <t>Comprei a versão Kindle, e depois me confundi e comprei novamente a mesma versão do livro em formato Kindle. Pois a Amazon faturou os dois pedidos feitos no mesmo dia e permite compras Kindle duplicadas. Isto não pode continuar, principalmente se tratando de conteúdo digital !!!</t>
+  </si>
+  <si>
+    <t>Não é tudo isso que falaram pelas redes sociais. Esperava muito mais desse livro por ser tão "aclamado" na literatura contemporânea.</t>
+  </si>
+  <si>
+    <t>Tendencioso, pensamentos de extrema-direita, classifica todas as minorias como vitimismos e coloca toda culpa no PTismo/lulismo/comunismo... grande ignorância ler esse autor e perigoso à aqueles brasileiros que já flertar com tais preconceitos, irão os ter reafirmados.</t>
+  </si>
+  <si>
+    <t>O que um livro desse acrescenta ao conhecimento de um jovem? Nada. E o pior é que há quem compre...</t>
+  </si>
+  <si>
+    <t>Varios personagens sem desfecho, final sem pé de cabeça  e temos uma Eva chorona. Não precisava desse livro. Muita expectativa para pouco.</t>
+  </si>
+  <si>
+    <t>Achei um livro muito superficial e enfadonho. O autor fica dando giros em volta de conceitos explicados muito por cima e a suposta "receita" nunca vem. Livros como A Força do Hábito são muito mais consistentes.</t>
+  </si>
+  <si>
+    <t>Extremamente superficial o livro é carregado de sofismas e platitudes. Análises descontextualizadas em uma linguagem pobre beirando a desonestidade intelectual.</t>
+  </si>
+  <si>
+    <t>Chato, parado. Uma grande decepção. Comecei a ler várias vezes, não conseguiu me prender em nenhum momento. Só no final é que li de uma tacada só , pra ver se me surpreendia...</t>
+  </si>
+  <si>
+    <t>Descreve um relacionamento abusivo, que é bem diferente de dominação no sexo. O fato de o protagonista masculino, Arthur, estar confuso com seus sentimentos não justifica a forma brutal que usa para se relacionar com Maiana. A persegue na faculdade puxando-a pelo braço com violência. Inicia sexo com ela sem seu consentimento, mesmo quando ela diz não querer, a segurando com brutalidade, sem dar opçao pra ela se negar ao sexo. Maiana, inocente, acaba cedendo pois se excita quando ele a manipula. Isso não me excita e não deve ser considerado normal. Também existe estupro entre um casal. Há quem goste. Não gostei. Arthur não me conquistou. O sexo é forçado. As vezes parece estar presente excessivamente para encher página. A perda da virgindade da protagonista é nada realista, nada realista MESMO! Indico outros livros da autora como O calor do sertão continua e Pecadora. São 5 estrelas.</t>
+  </si>
+  <si>
+    <t>Quando li a sinopse do livro esperava tratar-se de um romance de verdade, mesmo que com um final infeliz. Na verdade trata-se de uma história de amor de uma só pessoa. No final das contas, a protagonista era uma mulher envolvida com um homem egocêntrico, que amava acima de tudo a ele mesmo e não suportava a ideia de não ser mais o que foi no passado. Enquanto a protagonista fez dele o centro da vida dela e se dispôs a se sacrificar por este homem, ele se recusou a fazer o mesmo. Quando este homem a ajuda é na tentativa de fazer dela um espelho dele mesmo. O final poderia ser mais elaborado, ficou com aquela sensação de que o leitor foi alijado de participar do momento mais tratado durante toda a história. As personagens em geral são chatas e não acrescentam muito. O único mérito desta história é levantar alguns assuntos muito delicados como a eutanásia e o suicídio assistido e as dificuldades reais dos tetraplégicos, realidades que estão muito distantes da grande maioria das pessoas. Conclusão, o livro dá para passar o tempo, mas acrescentou muito pouco.</t>
+  </si>
+  <si>
+    <t>Compreendo o atraso enorme de quase duas semanas por causa da greve dos caminhoneiros, mas isso não justifica depois de tudo isso o livro chegar com a capa amassada e duas folhas amassadas. Sinceramente esperava mais.</t>
+  </si>
+  <si>
+    <t>Infelizmente a autora parece ter cedido às exigências cinematográficas, já que esse livro claramente é uma história intermediária, deixando margem pra um terceiro livro. Não seria um problema se o livro não fosse 50% enrolação e a história com uma temática completamente desinteressante. O oposto do primeiro livro.</t>
+  </si>
+  <si>
+    <t>O livro é muito chato, enrola muito. Apesar de conter algumas dicas que podem funcionar, o livro caberia perfeitamente em 10% das suas páginas.</t>
+  </si>
+  <si>
+    <t>Se a Silvia Day tivesse parado no terceiro livro seria melhor, esticar em 5 livros foi o maior erro. Fiquei decepcionada com o enredo final</t>
+  </si>
+  <si>
+    <t>Não gostei muito do livro, ele é todo escrito em formas de emails e mensagens, me deu a impressão de que ninguém nunca se encontra e quando marcam de se encontrar não tem aquela emoção porque o leitor só sabe por mensagem, como "a festa foi legal", "foi bom te ver"... não tem aquela emoção no final de cada capítulo que te faz querer ler mais e mais. Essa é minha opinião, mas uma amiga minha gostou e achou diferente.</t>
+  </si>
+  <si>
+    <t>Fraquíssimo, conjunto de frases de efeito que não levam a nenhuma informação ou visão nova, tipo Tenha foco nos seus objetivos que seus problemas serão resolvidos.</t>
+  </si>
+  <si>
+    <t>Eu comprei pela promoção que foi feita para a cidade de São Paulo, porém não sei como acessar o produto, não tem explicação alguma.</t>
+  </si>
+  <si>
     <t>Comprei esse livro (todo seu ) paguei a fatura e até hoje o livro não chegou😥quero meu livrooooo estou no aguarde a mais de sete meses</t>
   </si>
   <si>
     <t>FiZ a compra errada, era pra comprar o livro e acabei comprando esse kindle, Quero cancelar a compra do Kindle o segredo da mente milionária. Obrigada Karla</t>
   </si>
   <si>
+    <t>Conteúdo superficial onde se propõe nas dicas básicas indicar um caminho sem receitas. Bom para iniciantes sem nenhuma rota principal</t>
+  </si>
+  <si>
+    <t>Primeiramente, é SUPER previsível, e o romance não é bom. Por mais que esse não seja o foco, eu sempre vou votar em um romance bem construído. E, alias, não é nada que eu já não tenha visto antes. É um pouco de tudo, A Seleção, Trono de Vidro, Jogos Vorazes. E agora estou me perguntando porque algumas pessoas amaram o livro?! Porque para mim, pessoalmente, foi muito ruim e sinto que não há nada de verdadeiramente especial pra ter aquele hype todo.</t>
+  </si>
+  <si>
+    <t>Fuja desse lixo. É um desperdício de tempo, inteligência e dinheiro.</t>
+  </si>
+  <si>
+    <t>O ÓDIO É UMA VONTADE : Vontade de ajudar prender apenas um bandido e deixar outros soltos , vontade de  ser acadêmico e escrever livros para iludidos sem mesmo frequentar uma FACULDADE ou UNIVERSIDADE , pois é fácil a arte de  iludir.</t>
+  </si>
+  <si>
     <t>O box é maravilhoso e chegou antes do previsto, mas veio amassado e com várias partes rasgadas, a maior delas na parte de baixo como na imagem... Muito triste, gostaria de poder trocar!</t>
   </si>
   <si>
+    <t>Intediante, chato, o livro fica por dizer coisas óbivias e por isso acaba por ser irrelevante, então não o recomendo.</t>
+  </si>
+  <si>
     <t>o livro esta faltando dois capítulos,gostaria que trocassem por outro pois o livro é ótimo mas como posso terminar de ler se falta dois capítulos????</t>
   </si>
   <si>
+    <t>Pior livro que já li em toda a minha vida. Enrola MUITO. Fala o livro todo da tal da "comunidade miracle morning". Dava raiva antes de virar a página já, porque você sabe que na próxima ele vai dizer "entre na comunidade miraclemorning. com e veja quantas pessoas se beneficiam disso". affff Chato, chato, chato. Nem sequer 1 base científica...é tudo no "achismo". Quando estava no meio tive curiosidade de ver quais eram as referencias bibliográficas e, adivinha?? Nao tem nenhuma! Não gastem seu dinheiro. Tem muitos livros bons por aí...este aqui não vale nem quando está em promoção! Me arrependo muito de ter gasto 17,90 nele. =/</t>
+  </si>
+  <si>
+    <t>Escolhi o livro por acreditar no tema e indicação de uma amiga que segue o que ele propõe. Minha crítica maior é ao modo ostensivamente egoísta que ele foi escrito. Se é um livro de auto-ajuda, ok, já li muitos bons, sensíveis. Mas tudo leva a crer que se você quer mudar de vida, aproveitar melhor seu tempo, seria para ser vitorioso, rico, poderosamente um profissional tal...eu não me pauto pela minha profissão somente e meu interesse genuíno na técnica seria para ajudar a equilibrar todas tarefas que gostaria de fazer, unindo bem-estar emocional/físico e a sensação de dever cumprido. Portanto, achei agressivo o foco no sucesso - algo que pode ser subliminar - e ao mesmo tempo o excesso de citações de livros de possíveis amigos do autor, me dando a impressão de uma panelinha parecida com o que se vê atualmente na internet, onde todo mundo é o "bonzão" em alguma coisa, baixe meu e-book que eu vou te mostrar passo-a-passo...Ainda devo reler o livro e anotar algumas coisas, mas a sensação é que o caminho que explorarei sozinho vale mais, haja visto que todo o livro volta ele pra um cadastro em um site, certamente algo que eu não pedi e nem quis quando adquiri o livro. Talvez eu tenha vindo com muita expectativa, mas não creio.</t>
+  </si>
+  <si>
     <t>Comprei um Kindle e fiz a assinatura do Kindle Unlimited  justamente para ler a saga. Quando acabei de ler Cálice de fogo, estava muito empolgado para começar o quinto livro. Porém, não está disponível. Pelos comentários que há nas avaliações, já faz um bom tempo que não há como ler a Ordem da Fênix. Não vou esperar a boa vontade da Amazon de disponibilizar o título. Vou comprar a versão impressa em alguma livraria para não perder o fio da meada. Obviamente não comprarei na Amazon, pois me parece bem suspeito esse suposto erro na edição virtual. Me fez ter a impressão de que para além de pagar o Unlimited, se eu quiser continuar lendo terei que adquirir a versão impressa.</t>
   </si>
   <si>
+    <t>Quer bancar o diferente e só consegue ser preconceituoso. Oportunidade perdida de abordar de um jeito diferente a nossa história.</t>
+  </si>
+  <si>
+    <t>Muito fraquinho, como sempre digo, mais do mesmo que outros tantos livros do gênero. Leio para poder estudar a evolução desse gênero, mas vejo que não evolui. Falta mais compromisso.</t>
+  </si>
+  <si>
+    <t>Livro que tenta pregar mudança de pensamento e hábitos. Uma auto ajuda muito ruim. Abordagem extremamente repetitiva, cansativa e entediante.</t>
+  </si>
+  <si>
     <t>Vou começar uma leitura em conjunto com vários booktubers, e comprei na maior expectativa, a caixa da amazon veio extra grande, com mais de 30 saquinhos de ar junto com 2outros livrinhos acompanhando, mesmo assim a transportadora arrasou com a embalagem, toda rasgada, e a box veio com as pontas amassadas e danificou meus livros dentro. Triste demais com a amazon, já deixei de com nas americanas, submarino, na saraiva(pois os livros vinham empoeirados) e agora penso em não comprar mais na amazon, pois eles oferecem um cala-a-boca de 20% do produto, pra quem coleciona não importa 20% e sim o produto intacto na estante. Nota 0 amazon.</t>
   </si>
   <si>
     <t>Esbarrei e comprei livro errado. Não queria comprar esse livro. Sem querer esbarrei e acabou comprando, pois não há confirmação da compra. Tudo em apenas um clique. Nem cheguei a abrir o link para ler o livro. Preferiria desconto livros de economia (didáticos), pois uso com frequência devido à profissão de professor que estou começando; mas a inciativa foi boa da Amazon.</t>
   </si>
   <si>
+    <t>O texto é fluido e leitura agradável. Mas a história é um pouco arrastada e a desenlace previsível. Não se justifica o sucesso que está fazendo. Trata-se de bom entretenimento, mas que cairá rapidamente no esquecimento.</t>
+  </si>
+  <si>
+    <t>Olavo de Carvalho escreve muito bem.  Porém,  o conteúdo deste livro é comprometedor.  No geral,  é muito generalista,  tem  achismo  de mais é informações que ele não pode defender.  Além do Mais, Como confiar em um escritor  que declara que Niels Bhor e Werner Heisenberg são os inventores de tudo que não presta e que Max Karl Ernest Ludwig  Planck foi o "inventor" da teoria quântica, que o heliocentrismo é uma mentira  e  o Nazismo é de esquerda.</t>
+  </si>
+  <si>
+    <t>Nossa, como alguém ainda gasta seu dinheiro lendo isso? que manipulação</t>
+  </si>
+  <si>
+    <t>Este livro tem uma narrativa confusa, contraditória. Não há embasamento científico. Trata-se de teorias defendidas pelo autor. Parei de ler , quando me dei conta que era perda de tempo.</t>
+  </si>
+  <si>
+    <t>Adquiri a "edição comemorativa", na verdade uma edição econômica extremamente mal feita (4a. edição, 2015). Papel de baixa gramatura, péssima encadernação, as folhas estão desalinhadas, há cola na lombada e a fonte utilizada... bem,  a fonte utlizada é um total desrespeito ao leitor. Muito pequena, torna a leitura um esforço! Ao colocar esse produto no mercado a Editora Leya comete abuso, um desrespeito aos leitores e à obra em si. Lamentável, vergonhoso!</t>
+  </si>
+  <si>
+    <t>Habilidosa forma de tratar a boa luta entre o bem e o mal, destacando a virtude e esperança nas boas ações humanas, sejam jovens ou adultas. Boa e divertida leitura!</t>
+  </si>
+  <si>
+    <t>Esse livro do Cortella é muito previsível e superficial, chegando quase a ser uma cópia de outras publicações clássicas nessa área da análise comportamental. Os hábitos que Cortella cita ao longo do livro são comportamentos que já são citados pela nossa avó. Outro  problema do livro é o fato de o autor fazer muitas conexões com pensamentos e filosofias de cunho socialista e esquerdista, acabando por ser extremamente parcial.</t>
+  </si>
+  <si>
     <t>Totalmente insatisfeita com a entrega Amazon. Terceira vez que tenho atraso nas estrelas de livros e as crônicas que era pra ter recebido dia 11/12 não foram entregues.</t>
   </si>
   <si>
+    <t>Não curti muito esse livro, gosto muito de livros eróticos, mas esse não me agradou. Achei legal que o fato do livro se passar no Brasil, pois a autora fala de lugares e atividades que eu conheço, com relação a parte erótica eu achei forçada e até agressiva. Da metade pro final o livro ficou bem melhor e menos forçado, mas não recomendo e não leria se tivesse novamente se tivesse oportunidade.</t>
+  </si>
+  <si>
+    <t>“O que os autores ao final concluem, é que enfim, um despertar conservador começa a tomar para si, as rédeas do mundo, na tentativa de poder livra-lo do caminho do abismo. Décadas e décadas de governos autoritários e/ou ditatoriais, destruíram as liberdades, as economias e a autoestima de suas populações. Crises nos Países árabes, africanos, latino-americanos, ocorrem desde sempre, e esses mesmos governos com viés de esquerda, estavam no poder; só fizeram aumentar a pobreza, a fome e a miséria; locupletaram-se até não poderem mais, emitiram moeda quando esta acabava, compraram as midias pelo mundo todo, criaram e fortaleceram compadrios nas concessões públicas em rodovias, portos, aeroportos e até na área de energia, como petróleo e energia elétrica, e ao “povo”...migalhas; Meus irmãos, recalque é para recalcadas; Já era hora de acordarmos desse transe; Gente como esses autores, que se intitulam pesquisares ou professores de Harvard (leia-se berço progressista nos EUA), são frequentemente convidados a emprestar suas credenciais e suposta autoridade a pautas como essa, que não passa de mais um vexame esquerdista, que teimam em não aceitarem que perderam as eleições...ouvirão!!???....PERDERAM AS ELEIÇÕESSS...!!! Aceitem que dói MENOS...!!! União Europeia também ruirá, se Deus quiser, e Ele quer, ainda em 2019; Cansamos de carregar vocês nas costas. Vão trabalhar um pouco, ou como se diz lá na minha terra...”vão capinar um lote..!!!”; CHEGA DE HIPOCRISIA</t>
+  </si>
+  <si>
+    <t>Ao contrário do primeiro livro (Homo Sapiens), que é excelente, Homo Deus é uma porcaria. Começa com muita repetição do primeiro, em seguida diz o que acha que vai acontecer no futuro e inicia looooongas exposições e argumentações para provar que está certo. O autor se aproveita da popularidade do livro anterior para escrever qualquer coisa e vender fácil.  Decepcionante!</t>
+  </si>
+  <si>
+    <t>Não consegui terminar a leitura. Achei superficial e infantil. Nem a abordagem sobre o TOC conseguiu prender a atenção. Não recomendo.</t>
+  </si>
+  <si>
+    <t>Num mosteiro italiano em 1300, ocorreram algumas mortes misteriosas e um ex inquisidor começa a investigar as ocorrências. Há muito mistério envolvendo a biblioteca e suas obras, cujo acesso é feito apenas por um monge bibliotecário. Quando o investigador acessa a biblioteca, descobre que ela é feita na forma de um labirinto e com diversos artifícios para complicar seu uso, como espelhos que deformam a imagem, incensos que geram alucinações e passagens de vento que geram ruídos macabros. O livro tem longas citações em latim, que não são traduzidas e, além disto, há muitas digressões filosóficas que não agregam interesse e nem valor a estória. As relações entre os monges e o modo com o mistério é apresentado não prendem a atenção do leitor. Entediante.</t>
+  </si>
+  <si>
+    <t>A qualidade nem tem o q dizer... É otima.... Mas que história chata...  Não conseguiu me prender... É sempre a mesma coisa... Não curti!</t>
+  </si>
+  <si>
+    <t>Fiquei muito na dúvida se postaria ou não algo sobre esse livro, porque eu não queria propagar opinião “negativa” de um livro escrito por mulher. Mas, por outro lado, deixar de comentá-lo seria hipocrisia da minha parte, pois estaria apenas com medo do que as pessoas vão pensar de mim. Sendo assim, deixei o medo de lado e escolhi optar por deixar registrada a minha opinião sobre a obra. É fato que a autora conseguiu deixar bastante claras as suas opiniões usando uma pequena frase. Ela consegue deixar um nó na garganta do leitor, incomoda, dói e te faz pensar: essa menina passou mesmo por tudo isso? Essa pergunta acontece porque parece tão real, tão cru o modo como ela fala das coisas do coração, corpo e alma. Eu fiquei preocupada com ela em vários momentos, sério. A Rupi Kaur é uma poetisa da geração instapoesia. Bom, foi exatamente por esse motivo que eu não gostei do livro. E tudo bem! Não sou menos feminista por causa disso, eu apenas gosto de outros jeitos de poesia. Porém, apesar de não curtir muito a instapoesia, não sou estúpida de achar esse um livro sem relevância. Eu super acho incrível saber que de um modo simples e rápido as pessoas de qualquer parte do mundo têm a oportunidade de conhecer assuntos como empoderamento feminino, amor, violência contra mulher e autoestima. Tudo isso é valioso para o momento histórico-social que as mulheres estão enfrentando. (Clube Nem Tudo é Ficção)</t>
+  </si>
+  <si>
+    <t>Achei sem graça esse livro. Tópicos de livros ancestrais. O que eu gostei foi as frases de filósofos, isso já ajuda metade do livro para reflexão.</t>
+  </si>
+  <si>
+    <t>A personagem é muito depressiva. Sempre que leio fico me sinto contagiado por um baixo astral. Não recomendo de forma alguma!</t>
+  </si>
+  <si>
     <t>Revoltada por não conseguir devolver este box. Chegou com 5 dias de atraso e quando solicitei o cancelamento (1 dia depois do atraso) foi um verdadeiro descaso. Não me retornam. Não consigo pegar o meu reembolso e nem devolver o produto.</t>
   </si>
   <si>
     <t>Estou abismada que existem já avaliações negativas a mais de um ano em relação ao preço deste ebook e mais abismada ainda dele não ter baixado o preço. Adquiri recentemente o meu kindle e estou muito feliz com ele e fiquei entusiasmada de adquirir O Senhor dos Anéis no formato ebook, mas quando me deparei com este preço desisti na hora. Apenas queria saber que lógica há em vender este livro no formato digital neste preço estratosférico? Bom, será que alguém esta pagando por isto? Francamente.</t>
   </si>
   <si>
+    <t>é um livro bom, mas existe coisas que poderiam mudar.Eu esperava mais do livro, pois vi outro comentários,mas gosto é gosto</t>
+  </si>
+  <si>
+    <t>Parece que o autor não leu o próprio livro!! 🙄</t>
+  </si>
+  <si>
+    <t>Tive contato com "a obra" de Olavo de Carvalho quando eu tinha lá meus 15 anos. Por algumas semanas achei interessante pois tinha o propósito de desvelar verdades e conspirações. Passadas as semanas com meus olhos afiados para caçar comunistas, analisei seus indícios, busquei referências paralelas, e me dei conta de que ele é um lunático. Desde então, toda vez que vejo alguém dizer que gosta de Olavo de Carvalho, já encaro a pessoa como, no mínimo, uma analfabeta funcional. Recentemente um youtuber, filósofo formado, com as devidas técnicas de investigação filosófica, fez um vídeo de leitura e análise de lógica textual desse livro. Conclusão: Não há um parágrafo desse livro que não se utiliza de falácias. No vídeo também são elencados de maneira técnica os tipos de falácia utilizados. Link:https://youtu.be/EjQ9kVVuW0Y</t>
+  </si>
+  <si>
+    <t>Comprei imaginando um guia moderno para Investir, mas pelo contrário é um "Clássico" , nada contra os clássicos mas o autor escreveu esse livro há muito tempo atrás.....</t>
+  </si>
+  <si>
     <t>Por ser produto não do  meu interesse e recebi como bônus na compra de Kindle. Poderia ter oportunidade de escolher o livro da minha preferência.</t>
   </si>
   <si>
+    <t>Textos curtos com poucos atrativos. Embora seja um clássico por conta da criatividade e mensagens subliminares do autor, não aguçou a curiosodade nem a vontade de ler.</t>
+  </si>
+  <si>
+    <t>Decepcionada porque a autora prolongou demais a história e quando pensei que enfim iria terminar, agora vai para o livro 5 que só será lançado em junho de 2015. Fala sério! Não têm história para 5 livros.</t>
+  </si>
+  <si>
+    <t>Pena que a introdução dessa edição conta quem é o assassino da história, pule essa parte, que editor coloca isso no começo?</t>
+  </si>
+  <si>
+    <t>As dicas são boas, mas nada de novo, na verdade, são bem óbvias. Acredito que a maior parte das pessoas já as conhecem. No meu ponto de vista é um livro fraco, comprei mesmo pelo título.</t>
+  </si>
+  <si>
+    <t>Um livro sensacional. Tenho aplicado o conceito para adotar novos hábitos positivos em várias áreas da minha vida... Bom dia!!!</t>
+  </si>
+  <si>
+    <t>Confesso que quase desisti de ler a biografia da Rita Lee. Cheguei até uns 35% e cansei. O que se iniciou super bem, divertido até, passou a ser arrastado ao citar em detalhes o panorama musical em que ela começou, anterior ao meu conhecimento musical (ela é de 1947), e que me deixava perdida nas explanações. Segui pulando as partes muito descritivas de shows. Não há dúvidas que Rita Lee teve uma vida tumultuada, cheia de eventos incomuns e seu livro é um relato bem humorado de tudo que ela viveu. No entanto, é uma leitura para fãs de carteirinha, não tem muito ritmo para quem está em busca de um livro gostoso.</t>
+  </si>
+  <si>
     <t>Comprei para presentear, então não posso avaliar como gostaria se eu não ler, entao é isso.Chato ser obrigado a escrever tudo isso!</t>
   </si>
   <si>
     <t>O Ebook esta bem mais caro que o livro físico. Muito sem noção, não vou comprar não. Esperar até chegar nos R$20 e olhe lá.</t>
   </si>
   <si>
+    <t>Simplesmente odiei com todas as minhas forças!</t>
+  </si>
+  <si>
+    <t>Eu esperava um livro mais profundo pelas altas avaliações e comentários em geral, porém achei um livro muito raso, parece q você está lendo o diário do autor. O livro passa uma boa mensagem, porém para quem já leu vários livros de autoajuda, vai achar esse livro muito superficial.</t>
+  </si>
+  <si>
     <t>Olá! Abaixo, cópia da mensagem enviada à Editora L&amp;amp;PM (responsável pelo lançamento do SAPIENS no Brasil) e refere-se exclusivamente à versão Kindle. "Estou lendo (e adorando!) o SAPIENS, de Yuval Noah Harari. No entanto, como estou utilizando o Kindle para fazê-lo, estou sendo obrigado a enfrentar um problema enorme: a divisão silábica aleatória!! Pela primeira vez num livro em português me deparei com esse aparente defeito na conversão do livro para o formato da Amazon. Falo isso porque não é o primeiro título em português que leio nesse formato e posso atestar que isso nunca me aconteceu antes. Fico então obrigado a conviver com bizarrices do tipo "mul-heres", "cer-imônias", "sac-rifício", "partic-ular", "mod-erno", "de-sconhecidos" e muito, muito mais!... :-( Detalhe: alterando o tamanho da fonte não resolve o problema, apenas o desloca para outros pontos do texto. Em inglês isso não é uma surpresa pois não há regra quanto a isso. O que posso notar, porém, é que tanto em inglês quanto em português os livros que li até agora no Kindle evitavam ao máximo a separação silábica através de uma simples edição da página, de acordo com o tamanho da fonte utilizado no momento. A separação se dá apenas eventualmente. Infelizmente o mesmo não ocorre agora com o SAPIENS: a divisão é constante e, em inúmeros e irritantes casos, completamente errada! Na realidade, o prazer da leitura vai sendo minado pelo desprazer dessa lamentável falha, chegando quase a comprometê-lo por completo. Pergunta: teria havido algum problema na conversão desse específico livro para a versão Kindle? Estaria ocorrendo algum conflito de versões, já que recentemente tivemos um update do Kindle? Alguém mais trouxe o mesmo problema até vocês? Informo que estou encaminhando a mesma mensagem para a Amazon, caso a origem do defeito aqui relatado seja de competência daquela empresa. No mais, parabéns por editar no Brasil um livro tão especial. Atenciosamente subscrevo-me, na esperança de ter alguma solução para este lamentável contratempo. Nelson Meirelles"</t>
   </si>
   <si>
+    <t>Bela edição. Livro bem escrito, com personagens bem elaborados. Entretanto, ao meu ver é um livro que não acrescenta, e nem bem entretê. Em alguns momentos fiquei curiosa mas, num geral, achei a história fraca e delongada; não é o tipo de livro que mexe comigo e optei por algo bem raro que foi interromper a leitura, bem antes da metade do livro. Decidi ler sem saber nada da história nem do filme, nada mesmo, mas vi que a história não ia se desenvolver muito mesmo e então fui para as últimas páginas. Acho que, se tuvesse lido, choraria no final, porém, no meu ponto de vista, não recomendo.</t>
+  </si>
+  <si>
+    <t>Nossa, que livro ruim. Muito mais muito prolixo e chato. No começo parece ser interessante mas depois torna-se uma coisa extremamente chata.</t>
+  </si>
+  <si>
+    <t>O mínimo que você precisa saber para não ser um idiota é saber que ler esse livro tem grandes chances de tornar você um idiota.</t>
+  </si>
+  <si>
+    <t>Não sou de desistir de livro, mas neste não teve como. O livro é muuuito ruim e cansativo. Tem uma passagem em que ele diz que na maioria dos livros, só 20% do conteúdo realmente importa - só acho que o autor realmente tentou aplicar essa teoria no próprio livro, porque MEU DEUS, é muita repetição e chatice em quase 90% do livro mesmo. Detestei.</t>
+  </si>
+  <si>
     <t>R$228,25 num ebook é complicado pra caramba, melhor repensar esse valor! Estou no aguardode alguma promoção ou ajuste deste valor pois desejo muito adquirir essa coleção</t>
   </si>
   <si>
     <t>Eu comprei o livro para dar de presente, e escolhi  site da amazon.com pois apresenta o diferencial em se poder mandar o presente para um endereço e a nota fiscal para outro endereço, no entanto mandaram os dois para o endereço do presente, logo a pessoa ficou sabendo do valor, formas de pagamento, dentre outras coisas. Peço para que analisem isso, para que não ocorra novamente.</t>
   </si>
   <si>
+    <t>Não tem como não dar nenhuma estrela, então deixo essa para validar a avaliação. Pior livro que já li na vida, livro leviano, um regresso. Às vezes, durante a leitura, tive sensação que o autor queria o choque pelo choque, arrependimento de ter gasto um valor tão alto num livro que seequer serve para escora de porta. Não recomendo este livro.</t>
+  </si>
+  <si>
+    <t>Verdadeira porcaria de livro... parece que o autor do primeiro livro da trilogia sofreu uma lobotomia entre um livro e outro...</t>
+  </si>
+  <si>
     <t>Meu Box veio rasgado.</t>
   </si>
   <si>
     <t>Supostamente baixei este livro gratis apos uma promoçao de vocês, mas na verdade o download não foi realizado. Houvr algun problema?</t>
   </si>
   <si>
+    <t>A premissa é questionável e a receita é o óbvio! Mais um texto água com açúcar! Não gostei do que Lu!</t>
+  </si>
+  <si>
     <t>O box chegou com amassados, riscos e com uma espécie de cola grudada na parte externa dos livros. Única vantagem que vi foi o tempo de entrega de 2 dias, porém esperava muito mais de uma empresa como a Amazon.</t>
   </si>
   <si>
+    <t>Não gostei. Não fala nada de novo. Não empolga, aliás é bem chatinho. Não consegui terminar. Difícil entender como está na lista dos mais vendidos.</t>
+  </si>
+  <si>
     <t>Gostaria apenas de enfatizar que a nota dada nesta avaliação não diz respeito ao livro, mas ao preço praticado. Não há justificativa para que um livro digital seja vendido ao mesmo preço do impresso. Considero que alguns propósitos da venda de livros digitais estejam sendo distorcidos aqui.</t>
   </si>
   <si>
     <t>A coleção é maravilhosa, Sir Arthur Conan Doyle um mestre, mas o produto em si deixa a desejar, a caixa onde vem o produto se rasga ou descola fácil, pedi a substituição do produto é a Amazon disse que demoraria 1 mês para enviar o danificado e só aí iria mandar um novo, ridículo, como se eu tivesse culpa do envio descuidado deles.</t>
   </si>
   <si>
+    <t>Estava louco para ler o livro e fiquei muito desapontado com a linguagem do autor. Sei que muitos fatos da história mundial são enfeitados, mas este autor quase que denigre a imagem dos representantes de nossa história, não percebi nenhum embasamento muito teórico, e ele repete diálogos preconceituosos da sociedade. Não sei por qual motivo parece fazer tanto sucesso.</t>
+  </si>
+  <si>
     <t>Essa encomenda não veio pelos correios e chegou tanto os livros, como a cauxa do box amassadas.</t>
   </si>
   <si>
+    <t>Livro muito fraco. Quanta baboseira. Imaginava que a Lou fosse obter sucesso após a perda de Wil, mas não é isso que acontece. Esperava mais.</t>
+  </si>
+  <si>
+    <t>Desculp,e mas destrui o livro que dei de presente, ele apresenta uma brincadeira de "trepa, casa ou passa" ridícula, além de incutir ideias nas cabeças das jovens achei de extremo mal gosto, salvo se desejam que sua filha tenha uma visão mais promiscua da vida, ai ele norteia direitinho!Não recomendo, horrível!</t>
+  </si>
+  <si>
+    <t>Sem imaginação. Indução ao alcoolismo, às drogas e à automutilação. Sem graça, sem valor, sem estímulo à vida. Sem perspectiva. Sem interesse ou expectativa. De um modo geral, um lixo. Gostaria do meu dinheiro de volta.</t>
+  </si>
+  <si>
     <t>No ato da minha compra na descrição do produto não constava que o mesmo era um Livro de Bolso, muito pelo contrário, as dimensões do produto eram outras. Se eu estivesse no endereço quando o produto foi entregue teria devolvido o mesmo sem pestanejar, infelizmente estava de férias e acabei perdendo o prazo de devolução. Outra observação que tenho a fazer é em relação ao zelo pelos produtos embalados, os funcionários da Amazon pesaram a mão nas minhas últimas entregas, pois praticamente todos os livros contêm leves amassados em suas bordas. Fica aqui a minha indignação com a Amazon.</t>
   </si>
   <si>
+    <t>A tradução dessa edição não chega aos pés da já disponível pela Companhia das Letras / Penguim de autoria de Frederico Lourenço. Esta sim uma grande tradução dos grandes clássicos de Homero.</t>
+  </si>
+  <si>
+    <t>Para quem tem um mínimo de conhecimento em finanças e investimentos, este livro não serve para nada. Simplista, ingênuo e infantil.</t>
+  </si>
+  <si>
+    <t>O livro é uma mera propagando de leitura dinâmica, não possue conteúdo que realmente nos ajude a se tornar um leitor dinâmico. O que se espera após ler o subtítulo, o sentimento que fica após terminar este livro é de que fui enganado.</t>
+  </si>
+  <si>
+    <t>Me recusei a ler o livro todo. Estupro violência sexual é a forma como interpreto o primeiro sexo do casal. Acho um absurdo este tipo de cena e penso em meninas jovens lendo e achando que é normal. Não recomendo.</t>
+  </si>
+  <si>
+    <t>Livro sem nenhuma coisa de diferente. Autor bastante jovem e do "auto de sua experiência "aos 30 anos quer descobrir o segredo da vida. Totalmente dispensável o livro</t>
+  </si>
+  <si>
+    <t>Bom não digo que é a pior história do mundo, longe de mim fazer tal julgamento. Mas não gostei das personagens, da história, no começo me prendi ao livro e fui devorando-o, mas era uma leitura cansativa e chata, e as cenas finais são mal elaboradas, somos levados a um clímax muito sem graça.</t>
+  </si>
+  <si>
     <t>Péssimo. Qualidade horrível do papel, tamanho de letra quase ilegível e sem nenhuma ilustração. NÃO COMPRE. Fiquei decepcionado, especialmente porque pelo preço parecia que o produto seria minimamente aceitável.</t>
   </si>
   <si>
     <t>Minha experiência com ebook foi frustrante... no Kindle o livro não tem cor agradável, o que desestimula a leitura. Parece uma xerox.</t>
   </si>
   <si>
+    <t>Foi uma historia escrita simplesmente para as pessoas comprarem espero que a continuaçao seja muito melhor pior livro da Jojo.</t>
+  </si>
+  <si>
+    <t>O livro é escrito por um dos mais reacionários jornalistas brasileiros, com o objetivo claro de enaltecer todos os personagens históricos com posicionamento de direita e desmoralizar os personagens que possuem pensamento de esquerda. O livro tem um ótimo título e uma capa muito bem feita, o que nos leva a ler. Porém, a medida que foi prosseguindo a leitura, comecei a perceber o seu forte conteúdo ideológico desfaçado e procurei pesquisar quem era o autor, para entender o seu objetivo. O livro não é baseado em fontes confiáveis e apenas "pinça" fatos não comprovados para confirmar teses muito questionáveis. Não percam o seu tempo com este lixo!!!</t>
+  </si>
+  <si>
+    <t>Esperava mais... pra escrever isso preferia ter ficado em casa tomando chá. Precisa de algo a mais para se redimir dessa perda de tempo. Um novo livro a altura do legado Potter</t>
+  </si>
+  <si>
+    <t>O autor começa bem, mas da metade pra frente se perde, não via a hora de acabar o livro e seguir para o próximo.</t>
+  </si>
+  <si>
+    <t>Acho uma ofensa a quem vai para universidade estudar Ciências Sociais, Filosofia, História, Sociologia ou Antropologia ser nivelado por baixo a um charlatão, iletrado que sequer terminou o primário, que se auto intitula filósofo e ainda é chamado por gente boçal de "maior filósofo da direita"... para quem estuda de verdade, que lê livros de verdade, que vai às fontes é um acinte.</t>
+  </si>
+  <si>
     <t>A história dispensa comentários, é um dos maiores clássicos da literatura contemporânea, encantando a jovens e adultos, mas essa versão para o Kindle é uma vergonha! Possui erros de tradução e até de divisão de "pal-avras", aliás, centenas deles. Lamentável, cara Amazon.</t>
   </si>
   <si>
+    <t>Frustrado. Comprei o livro para conhecer Leonardo da Vinci, mas o Sr Walter Isaacson se ateve aos cadernos de Leonardo e nos deu uma aula de arte, pintura, escultura. Não era este o meu objetivo ao adquirir este e-book. Baseado nesta biografia, o Sr Walter saiu da minha lista de autores que quero ler.Já li 30% do livro e vou até o fim, mas muito aborrecido.</t>
+  </si>
+  <si>
+    <t>Me sentir enganado ao ler o livro, paguei para ler propaganda de um método que está a venda. Recomendo que retirem o livro do site, é uma vergonha ter um livro desse a disposição para venda.</t>
+  </si>
+  <si>
     <t>O titulo não veio centralizado, no dorso. Não gostei!</t>
   </si>
   <si>
+    <t>Comprei o livro baseado  na qtd de avaliações acima da média. Resultado: Decepção total. Livro cheio de clichês e dicas mais rasas que frases motivacionais no facebook. Não vale a pena a leitura.</t>
+  </si>
+  <si>
+    <t>O conteúdo do livro em si é bom (as técnicas e assuntos que ele aborda são, de fato, muito importantes). Entretanto, o livro tem uma abordagem de auto ajuda, com generalizações sem sentido, usando aquela abordagem prescritiva que promete 100% de sucesso a todos que seguirem as "dicas mágicas e infalíveis" do livro, simplificando demasiadamente o assunto. O livro é mal escrito também, confuso em algumas partes, e a todo momento você não sabe se o autor está falando de algo academicamente comprovado, se existem estudos práticos, se é opinião/experiência pessoal, ou se tem a ver com a fé dele (sim, existem várias opiniões religiosas inseridas junto ao texto). Enfim, ruim! Não dou nota 1 porque, apesar de mal escrito, o que o livro prescreve, de fato, é algo que funciona muito bem na imensa maioria dos casos e o brasileiro médio viveria muito melhor se seguisse as dicas.</t>
+  </si>
+  <si>
     <t>Eu estava disposto a comprar este livro, mas sem um posicionamento oficial da Amazon quanto às denúncias indicando que este e-book é uma versão "pirata", que sequer foi traduzida pelo Jorge Candeias, não se pode fazer nada. Não estou disposto a jogar meu dinheiro fora em um material de baixa qualidade. Me decepciona a possibilidade de isto estar acontecendo na loja da Amazon aqui no Brasil. Está parecendo descuido, descaso, falta de seriedade com os consumidores brasileiros.</t>
   </si>
   <si>
@@ -284,21 +824,72 @@
     <t>Fiz a compra e a encomenda chegou bem rápido, entretanto, ao abrir o pacote, uma surpresa. Veio apenas 1 livro e a compra foi de 2 exemplares. Inclusive a nota fiscal diz que são duas unidades e o valor cobrado é por dois livros. Costumo comprar da Amazon e sempre fui muito bem atendida. Espero que o mau atendido se resolva rapidamente.</t>
   </si>
   <si>
+    <t>Se resumir o livro é igual uma laranja , restará uma semente. A semente diz o que é senso comum . Nada de novo só para o autor que vive fantasiado em história banais .</t>
+  </si>
+  <si>
+    <t>Pessoal, vocês vão me desculpar, mas a resenha parece a história daquele filme com a Julia Roberts e o Campbell Scott com a música do Kenny G, "Tudo por Amor".</t>
+  </si>
+  <si>
     <t>Infelizmente a caixa veio rasgada. A Amazon prontamente trocou o produto, mas veio rasgada novamente. Na segunda tentativa de troca a Amazon entendeu bem o problema mas preferiu devolver o valor pago. Não era a solução que eu gostaria. Minha intenção era apenas substituir novamente. Acabei ficando com o produto avariado mesmo. Entendo o motivo da opção pelo reembolso, a recorrência do problema e os custos envolvidos, mas no fim não era a melhor solução para mim.</t>
   </si>
   <si>
+    <t>Nunca vi alguem escrever tantos dados errados e ter tanto sucesso. A começar dizendo que a humanidade tinha uma vida mais confortavel quando era coletora, cuja qualidade piorou com a agricultura. Ou, manipulando trechos da Biblia para forçar uma conclusão. Desonesto este autor</t>
+  </si>
+  <si>
+    <t>Se não gosta de livro sobre traição, nem leia esse livro, ele trai a mocinha com metade da cidade, do primeiro dia até o último dia do relacionamento deles, depois que ela descobre, aí diz que mudou e blá blá blá, balela, mocinho fraco, influenciável e nojento, que ódio, perdi meu tempo.</t>
+  </si>
+  <si>
+    <t>Pra mim isso nem pode ser chamado de livro. A garota não tem idade suficiente pra poder contar alguma coisa interessante e útil, já basta seu canal infantil com vídeos bobos.</t>
+  </si>
+  <si>
+    <t>"Nossos parentes vivos mais próximos incluem chimpanzés, os gorilas e os orangotangos. Os chimpanzés são os mais próximos. Há apenas 6 milhões de anos, uma fêmea primata teve duas filhas. Uma delas se tornou a ancestral de todos os chimpanzés; a outra é nossa avó." Até hoje não foi encontrada prova de evolução, ou seja, não há prova de que um anfíbio se tornou réptil, ou que um chimpanzé se tornou humano. Somente especulações, baseadas em ideias. Tem que ter mais fé para cer nessa história do que para crer que Deus criou o Universo e tudo que há nele. Mais um livro da moda do ateísmo.</t>
+  </si>
+  <si>
     <t>Realmente triste um sucesso desses ser vendido numa versão digital, que teve custo mínimo de produção e tem custo 0 de venda, num preço 2x maior que o produto físico, que teve custos de produção e distribuição infinitamente maiores do que o digital... Simplesmente lamentável... Amazon perdeu todo o respeito que eu tinha pela empresa.</t>
   </si>
   <si>
+    <t>O livro se arrasta em cima de um so fato deixando pro final a uma revelacao sem grandes surpresas... dispensavel</t>
+  </si>
+  <si>
+    <t>Tao ruim quanto o primeiro. Fonte não justificada e erros de português . É uma pena pq o livro é  muito bom...</t>
+  </si>
+  <si>
+    <t>Assisti alguns vídeos das palestras ministradas pelo autor e resolvi comprar o ebook para ratificar minha opinião. Mais um desses generalistas de plantão!</t>
+  </si>
+  <si>
+    <t>O autor se descreve como o deus do coaching, fazendo referências as suas horas de trabalho e ao seu programa o tempo todo. Faz propaganda do seu programa de coaching mais do que deveria. Não é um livro que o prenda a sua atenção. Muito simples, não de uma boa maneira.</t>
+  </si>
+  <si>
+    <t>Realmente tem de ser um para gastar tanto dinheiro num livro dessa qualidade...um apanhado de repetições e clichês de um filósoso que nem é filósofo de verdade...</t>
+  </si>
+  <si>
+    <t>Achei esse livro um pouco marqueteiro demais... Esperava bem mais dele</t>
+  </si>
+  <si>
+    <t>Perdeu toda credibilidade, se realmente fosse inteligente não diria isso:O caso do Queiroz é um factóide ridículo, forçado, artificioso, inventado só para queimar a reputação do Flávio Bolsonaro. Não merece dois minutos de atenção numa rádio do interior. O que merece atenção e merece ser denunciado, isto sim, é a operação midiática que o criou.”</t>
+  </si>
+  <si>
+    <t>Decidi ler o livro por conta do filme. Imaginei que como o filme foi ótimo assumi que o livro seria fantástico... Tolo engano. Leitura muito chata, descrições extremamente cansativas de repleto de diálogos enfadonho. Não consegui terminar o livro... abandonei antes da metade. Definitivamente não recomendo.</t>
+  </si>
+  <si>
     <t>Preciso saber se essa compra é do livro físico!!! Pq não quero digital!!! Acho que não entendi a propaganda!!:(( Desculpa msm!!! Fui no impulso!!! Se não for físico quero cancelar a compra!!!</t>
   </si>
   <si>
+    <t>É um ótimo livro para quem é, e deseja ser um analfabeto político. É, também, perfeito para pessoas cheias de achismos como aquelas que chamam liberais de fascistas! Péssimo.</t>
+  </si>
+  <si>
     <t>Quatro páginas coladas mal cortadas, e sobre saindo o livro, e com orelha, FLOP. Justo o que queria mais ler, triste.</t>
   </si>
   <si>
+    <t>Trata de modo superficial o tema da velocidade na leitura. Serve apenas como um primeiro contato com a ideia de leitura dinâmica.</t>
+  </si>
+  <si>
     <t>O conteúdo do livro é excelente, sem dúvidas. A única reclamação que tenho é em relação ao papel, que tá mais pra um papel higiênico... Mas minha reclamação em si não é à Leya, e sim à amazon que me enviou um livro cheio de rasgos e amassado. Inaceitável para um livro de coleção... compro com a amazon faz 3 anos e é a primeira vez que me decepciono com um pedido.</t>
   </si>
   <si>
+    <t>Pensa em um livro que a gente espera mais que tudo. A sequência do livro "A pessoa que eu era antes de você" foi tão aguardada. A personagem era tão viva no primeiro livro, Will tinha deixado um legado tão interessante pra ela aproveitar e viver experiências novas, que em alguns momentos do primeiro livro eu quis ser a personagem. "Depois de você" não diz pra que veio, apresenta um Lou bem chatinha, comum que não nos convence das mesmas coisas que foi capaz de fazer no primeiro livro. Não senti como uma sequência e sim como um outro livro, uma outra história, que eu particularmente não gostei.</t>
+  </si>
+  <si>
     <t>Em meio a um processo de decisão (compro ou não compro um Kindle), me deparo com uma resenha ABSURDAMENTE negativa, mencionando diferenças nos textos entre a versão impressa e ebook. Aí vai ficar difícil, Dona Amazon... Favor se pronunciar se essa "política" vai permanecer...</t>
   </si>
   <si>
@@ -308,9 +899,18 @@
     <t>Um dos livros faltam mais de 40 páginas. Ex.: Pula da pág 140 pra pág 193. Como foi um presente e a pessoa só viu quando estava lendo essa parte, perdemos o prazo de devolução.</t>
   </si>
   <si>
+    <t>Perceber que este livro está entre os mais vendidos no Brasil é um sintoma que precisamos estudar. Li e percebo que se trata de uma conversa do autor compartilhando sua vida, suas experiências positivas de superação das dificuldades. Problemas, acidentes, doenças? Todos temos. Superações? Todos enfrentamos. O que o faz diferente? Ele transformou a superação e o compartilhamento de suas histórias em um negócio. Vende palestras, conselhos e livros. O que era para termos gratuitamente através das boas conversas com nossos familiares e amigos - ganha status de necessidade de compra. Por isso vejo como "triste". E o conteúdo? O mesmo de todo livro de auto-ajuda. Neste livro há uma série de sugestões, de hábitos para você criar para alcançar o sucesso em qualquer área. Qualquer? Sim, o autor "promete" isso, perigosamente.... tem coragem suficiente para prometer, afirmar, convidar, enfim... e a julgar pelo número de vendas - está convencendo. Brasileiros precisam de conselhos simples, por que não encontram em seu dia a dia estas orientações. Não é um sintoma importante para analisarmos?</t>
+  </si>
+  <si>
+    <t>As ilustrações não corresponderam minhas espectativas descritas, tendo aparencia pequena em preto e branco no cantinho no inicio dos capitulos, achei horriveis, sinceramente comprei pelas ilustrações mas fiquei frustrada. Já tenho uma coleção Harry Potter em capa dura prefiro reler a coleção q já tenho.</t>
+  </si>
+  <si>
     <t>Pegadinha do Amazon...não era possível baixar o livro, era só pra entrar no site...marketing negativo, mais um ponto pra vocês</t>
   </si>
   <si>
+    <t>decepção logo quando começou a sitar kal Maxi perdi a vontade de continuar a leitura. o marxismo  e responsável pelas maiores tragédias humanitárias desde o seculo XIX. Em resumo eu quero Menos Max, mais Misse.</t>
+  </si>
+  <si>
     <t>Pedi o livro baseado na promoção q era de graça. Não autorizo está compra. Ajustem o site de vcs para evitar tais desconfortos. Dória tem razão... e vcs não cumpriram com a palavra. Não aceito pagar R$21,00 por este livro, pois estava informando q era gratuito</t>
   </si>
   <si>
@@ -320,7 +920,28 @@
     <t>Não há justificativa para o preço absurdo deste ebook, se bobear você acha mais barato o livro impresso do que essa versão digital. Uma pena, gostaria muito de ter o ebook.</t>
   </si>
   <si>
+    <t>Achei muito merchandising e pouco conteúdo prático. Os conteúdos ficam em um site e não no livro. Sinto que desperdicei meu dinheiro com o livro já que no site o conteúdo é gratuito.  Além disso, tem muitas histórias pessoais e relatos sobre como o milagre É incrível e pouco sobre o milagre.</t>
+  </si>
+  <si>
+    <t>A razão nem encosta no pensamento confuso e contraditório. Não é um estudioso, é apenas um compilador que distorce ao bel prazer e engana aqueles que desconhecem outras obras. Ele aposta na ignorância dos seus leitores para tentar construir uma narrativa "fática". É superficial e conflituoso. Nada justifica um elogio. Não desperdice seu tempo.</t>
+  </si>
+  <si>
+    <t>Eu fiquei muito decepcionada com a autora esperava mais do livro, ela acabou com a história de Gideon e Eva nesse último volume, esperava um desfecho melhor, sabe aquele final feliz eles deixam seus medos e traumas pra trás, vão pra lua de mel, esperava os filhos nem isso teve, muito triste perdi meu tempo lendo todo seu!!</t>
+  </si>
+  <si>
+    <t>Achei que o livro deu mais ênfase ao sexo do que realmente ao romance. Maiana foi uma personagem que não usa sua aparência para conseguir o que deseja, é forte e sua paciência de aturar sua mãe e irma que só a desprezam já ganhou pontos comigo. Arthur é um homem cheio de si que se acha o dono do mundo, mimado e arrogante, alem de não acredita no amor e só usa as mulheres para seu bel prazer, tratando-as como objetos . So cheguei a ler o livro  A Redenção de um Cafajeste porque me apaixonei pelo personagem do Mahteus em Redenção e Submissão, esse livro sim me encantou, pensei que seria o mesmo com o primeiro mais me enganei.</t>
+  </si>
+  <si>
+    <t>Não recomendo. Honestamente não recomendo. O conteúdo é super interessante, mas a diagramação não foi feita. A história se perde, inicia uma história no meio da outra e "do nada" a história retorna. A Amazon deveria excluir livros assim. Editora, não existe diagramação para kindle? Sério que vendem dessa forma? Foi muito triste.</t>
+  </si>
+  <si>
     <t>depois de fazer o pedido que vi que era pocket e pelos comentários... Espero sinceramente que eu consiga cancelar. Decepcionada mesmo.</t>
+  </si>
+  <si>
+    <t>A personagem principal parece sofrer de uma espécie de mania de cuidar do outro e não olhar para si, personagens como os pais do falecido suicida mudam repentinamente de personalidade, muito irreal</t>
+  </si>
+  <si>
+    <t>É um daqueles livros de leitura rápida. Achei bacana os pensamentos da personagem mas história em si, esquece. Dá pra passar o tempo, mas não queiram nada muito profundo. Fiquei surpresa como o livro não vai de nada à lugar nenhum. Mas dá pra ler? Dá, distrai bem. Se eu leria de novo? Não.</t>
   </si>
 </sst>
 </file>
@@ -399,11 +1020,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +1341,7 @@
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,199 +1349,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -928,7 +1549,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -936,7 +1557,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -944,31 +1565,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -976,31 +1597,31 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1008,7 +1629,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1016,15 +1637,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1032,7 +1653,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1040,7 +1661,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1048,7 +1669,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1056,7 +1677,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1064,7 +1685,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1072,7 +1693,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1080,15 +1701,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1096,7 +1717,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1104,7 +1725,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1112,15 +1733,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1128,7 +1749,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1136,7 +1757,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1144,7 +1765,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1152,7 +1773,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1160,7 +1781,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1168,7 +1789,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1176,7 +1797,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1184,7 +1805,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1192,7 +1813,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1200,23 +1821,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -1224,7 +1845,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1232,7 +1853,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1240,71 +1861,71 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1312,7 +1933,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1320,63 +1941,63 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1384,47 +2005,47 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -1432,31 +2053,31 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -1464,29 +2085,1706 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105">
         <v>3</v>
       </c>
     </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>121</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>206</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B91">
-    <sortCondition ref="B2:B91"/>
-  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
